--- a/server/images/id_url_table.xlsx
+++ b/server/images/id_url_table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/David/Desktop/Gatech/BDS/wherebuy/server/images/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Managine/Documents/workspace/wherebuy/server/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -93,13 +93,139 @@
   </si>
   <si>
     <t>https://www.amazon.com/Newtons-Fruit-Chewy-Cookies-Ounce/dp/B01LF70T66/ref=sr_1_27_s_it?ie=UTF8&amp;qid=1511277078&amp;sr=1-27&amp;keywords=cookies</t>
+  </si>
+  <si>
+    <t>00011</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Chips-Ahoy-Cookies-Chocolate-11-75-Ounce/dp/B00RGNGH1U/</t>
+  </si>
+  <si>
+    <t>01001</t>
+  </si>
+  <si>
+    <t>01002</t>
+  </si>
+  <si>
+    <t>01003</t>
+  </si>
+  <si>
+    <t>01004</t>
+  </si>
+  <si>
+    <t>01005</t>
+  </si>
+  <si>
+    <t>01006</t>
+  </si>
+  <si>
+    <t>01007</t>
+  </si>
+  <si>
+    <t>01008</t>
+  </si>
+  <si>
+    <t>01009</t>
+  </si>
+  <si>
+    <t>01010</t>
+  </si>
+  <si>
+    <t>02001</t>
+  </si>
+  <si>
+    <t>02002</t>
+  </si>
+  <si>
+    <t>02003</t>
+  </si>
+  <si>
+    <t>02004</t>
+  </si>
+  <si>
+    <t>02005</t>
+  </si>
+  <si>
+    <t>02006</t>
+  </si>
+  <si>
+    <t>02007</t>
+  </si>
+  <si>
+    <t>02008</t>
+  </si>
+  <si>
+    <t>02009</t>
+  </si>
+  <si>
+    <t>02010</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Breyers-Ice-Cream-French-Vanilla/dp/B000R4DGRS/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Ben-Jerrys-Cream-Tonight-Frozen/dp/B00RWTVI9Y</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/365-Everyday-Value-Organic-Sandwiches/dp/B074VBL8HL/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Haagen-Dazs-Vanilla-Bean-Cream-Frozen/dp/B000PYLT3S/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Magnum-Cream-Infinity-Chocolate-Frozen/dp/B00RWTW16I/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Talenti-Gelato-Vanilla-Bean-Frozen/dp/B0040IH5A6/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Blue-Bunny-Freedom-Vanilla-Flavored/dp/B01LY46GGS/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Jenis-Splendid-Ice-Creams-Churro/dp/B01N6MWMQU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Haagen-Vanilla-Chocolate-Cookie-Frozen/dp/B01N7ZRKDV/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Turkey-HIll-Vanilla-Cream-Frozen/dp/B003M0JIMQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_grocery_sr_pg1_2?ie=UTF8&amp;adId=A085578237KQBUDQ29X6L&amp;url=https%3A%2F%2Fwww.amazon.com%2FNatures-Best-Isopure-Grape-drinks%2Fdp%2FB0012NVERC%2Fref%3Dsr_1_2_sspa%3Fs%3Dgrocery%26ie%3DUTF8%26qid%3D1512083376%26sr%3D1-2-spons%26keywords%3Ddrinks%26psc%3D1&amp;qualifier=1512083376&amp;id=7299895467222836&amp;widgetName=sp_atf</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Ocean-Spray-Cranberry-Cocktail-Juice/dp/B0010XRZ7W/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Sobe-Water-Yumberry-Pomegranate-Calorie/dp/B001TAI34A</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Boost-Nutritional-Drinks-Original-Chocolate/dp/B074P98SV7</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Core-Power-fairlife-Chocolate-11-5-ounce/dp/B007MI2RI6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Bing-Beverage-Company-Cherry-12-Ounce/dp/B004CQYODW/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Brasilia-Blueberry-Antioxidant-Infused-Beverage/dp/B00W4H8C6Q/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Pussy-Natural-Energy-Drink-250ml/dp/B00BOTYGBU/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_aps_sr_pg1_1?ie=UTF8&amp;adId=A09480393531WOHMILX6Y&amp;url=https%3A%2F%2Fwww.amazon.com%2FNeuro-Nutritional-Supplement-Tropical-14-5-Ounce%2Fdp%2FB003IHO8LE%2Fref%3Dsr_1_1_sspa%3Fie%3DUTF8%26qid%3D1512083814%26sr%3D8-1-spons%26keywords%3Dbliss%2Bdrink%26psc%3D1&amp;qualifier=1512083815&amp;id=2506764702903515&amp;widgetName=sp_atf</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Coca-Cola-049000050103-2-Liter/dp/B000T9UV9M/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -113,6 +239,12 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -133,17 +265,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -422,7 +557,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -516,67 +651,172 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4"/>
-    </row>
-    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4"/>
-    </row>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4"/>
-    </row>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4"/>
-    </row>
-    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4"/>
-    </row>
-    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4"/>
-    </row>
-    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4"/>
-    </row>
-    <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4"/>
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
@@ -3494,6 +3734,17 @@
     <hyperlink ref="B9" r:id="rId8"/>
     <hyperlink ref="B10" r:id="rId9"/>
     <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B22" r:id="rId11"/>
+    <hyperlink ref="B15" r:id="rId12"/>
+    <hyperlink ref="B18" r:id="rId13"/>
+    <hyperlink ref="B21" r:id="rId14"/>
+    <hyperlink ref="B26" r:id="rId15"/>
+    <hyperlink ref="B29" r:id="rId16"/>
+    <hyperlink ref="B30" r:id="rId17"/>
+    <hyperlink ref="B24" r:id="rId18"/>
+    <hyperlink ref="B31" r:id="rId19"/>
+    <hyperlink ref="B25" r:id="rId20"/>
+    <hyperlink ref="B32" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/server/images/id_url_table.xlsx
+++ b/server/images/id_url_table.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -93,6 +93,132 @@
   </si>
   <si>
     <t>https://www.amazon.com/Newtons-Fruit-Chewy-Cookies-Ounce/dp/B01LF70T66/</t>
+  </si>
+  <si>
+    <t>00011</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Chips-Ahoy-Cookies-Chocolate-11-75-Ounce/dp/B00RGNGH1U/</t>
+  </si>
+  <si>
+    <t>01001</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Breyers-Ice-Cream-French-Vanilla/dp/B000R4DGRS/</t>
+  </si>
+  <si>
+    <t>01002</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Ben-Jerrys-Cream-Tonight-Frozen/dp/B00RWTVI9Y/</t>
+  </si>
+  <si>
+    <t>01003</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Blue-Bunny-Freedom-Vanilla-Flavored/dp/B01LY46GGS/</t>
+  </si>
+  <si>
+    <t>01004</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Haagen-Dazs-Vanilla-Bean-Cream-Frozen/dp/B000PYLT3S/</t>
+  </si>
+  <si>
+    <t>01005</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Jenis-Splendid-Ice-Creams-Churro/dp/B01N6MWMQU/</t>
+  </si>
+  <si>
+    <t>01006</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Haagen-Vanilla-Chocolate-Cookie-Frozen/dp/B01N7ZRKDV/</t>
+  </si>
+  <si>
+    <t>01007</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/365-Everyday-Value-Organic-Sandwiches/dp/B074VBL8HL/</t>
+  </si>
+  <si>
+    <t>01008</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Magnum-Cream-Infinity-Chocolate-Frozen/dp/B00RWTW16I/</t>
+  </si>
+  <si>
+    <t>01009</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Turkey-HIll-Vanilla-Cream-Frozen/dp/B003M0JIMQ/</t>
+  </si>
+  <si>
+    <t>01010</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Talenti-Gelato-Vanilla-Bean-Frozen/dp/B0040IH5A6/</t>
+  </si>
+  <si>
+    <t>02001</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Natures-Best-Isopure-Grape-drinks/dp/B0012NVERC/</t>
+  </si>
+  <si>
+    <t>02002</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Bing-Beverage-Company-Cherry-12-Ounce/dp/B004CQYODW/</t>
+  </si>
+  <si>
+    <t>02003</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Pussy-Natural-Energy-Drink-250ml/dp/B00BOTYGBU/</t>
+  </si>
+  <si>
+    <t>02004</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Ocean-Spray-Cranberry-Cocktail-Juice/dp/B0010XRZ7W/</t>
+  </si>
+  <si>
+    <t>02005</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Neuro-Nutritional-Supplement-Tropical-14-5-Ounce/dp/B003IHO8LE/</t>
+  </si>
+  <si>
+    <t>02006</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Sobe-Water-Yumberry-Pomegranate-Calorie/dp/B001TAI34A/</t>
+  </si>
+  <si>
+    <t>02007</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Boost-Nutritional-Drinks-Original-Chocolate/dp/B074P98SV7/</t>
+  </si>
+  <si>
+    <t>02008</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Core-Power-fairlife-Chocolate-11-5-ounce/dp/B007MI2RI6/</t>
+  </si>
+  <si>
+    <t>02009</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Brasilia-Blueberry-Antioxidant-Infused-Beverage/dp/B00W4H8C6Q/</t>
+  </si>
+  <si>
+    <t>02010</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Coca-Cola-049000050103-2-Liter/dp/B000T9UV9M/</t>
   </si>
 </sst>
 </file>
@@ -427,7 +553,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -521,67 +647,172 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
@@ -3489,16 +3720,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B22" r:id="rId1" xr:uid="{EF7CF633-B9F5-496B-8474-6B1900EAF8D4}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{4C6AED4B-8301-437D-81FE-05509215682A}"/>
+    <hyperlink ref="B18" r:id="rId3" xr:uid="{BE50CC64-44E8-4F9D-8BA5-C31067E5512A}"/>
+    <hyperlink ref="B21" r:id="rId4" xr:uid="{31B0BBAA-541B-459A-B507-0E59C2296727}"/>
+    <hyperlink ref="B26" r:id="rId5" xr:uid="{5935BE25-34D4-4EFA-8ECF-CC7FD662296C}"/>
+    <hyperlink ref="B29" r:id="rId6" xr:uid="{6DA0CB6C-0EDF-4A79-A466-410BFBD9FE23}"/>
+    <hyperlink ref="B30" r:id="rId7" xr:uid="{7035A070-AA60-4AB1-81B1-6798E5D2468E}"/>
+    <hyperlink ref="B24" r:id="rId8" xr:uid="{71D0AF82-2D3E-40FC-A074-4DCEB2F21E17}"/>
+    <hyperlink ref="B31" r:id="rId9" xr:uid="{A9ECE775-EE0E-4A3E-8067-DE61A5AFB433}"/>
+    <hyperlink ref="B25" r:id="rId10" xr:uid="{EA053556-7233-4508-84A8-4365BD8BD88A}"/>
+    <hyperlink ref="B32" r:id="rId11" xr:uid="{D67F427B-93B3-43B6-A0D8-4C656FE178BF}"/>
+    <hyperlink ref="B2" r:id="rId12" xr:uid="{EDDFA0A8-26D9-4F19-A073-7326BF4D34D7}"/>
+    <hyperlink ref="B3" r:id="rId13" xr:uid="{40851C81-7570-4416-A7F6-00D92A8713AA}"/>
+    <hyperlink ref="B4" r:id="rId14" xr:uid="{6A2DF464-A4FE-40A5-97F0-C5B8E3CA43F2}"/>
+    <hyperlink ref="B5" r:id="rId15" xr:uid="{7AF4073F-8043-424F-B483-84AA8AB7CE90}"/>
+    <hyperlink ref="B6" r:id="rId16" xr:uid="{74EBDC9B-E168-47D6-A5B4-AD8983343543}"/>
+    <hyperlink ref="B7" r:id="rId17" xr:uid="{04122DB0-B075-4CCE-9F24-257393BE5E59}"/>
+    <hyperlink ref="B8" r:id="rId18" xr:uid="{DC3EC9C4-4735-4655-85C2-E7E6513D4258}"/>
+    <hyperlink ref="B9" r:id="rId19" xr:uid="{0D44DE1E-F035-4F8F-9C81-4076699563E9}"/>
+    <hyperlink ref="B10" r:id="rId20" xr:uid="{C51757E6-E7F3-4F4D-8BCA-E56878166E92}"/>
+    <hyperlink ref="B11" r:id="rId21" xr:uid="{39904B86-77D2-4A36-9B62-CEE132D4832A}"/>
+    <hyperlink ref="B12" r:id="rId22" xr:uid="{A00FCA81-C43E-4660-A07C-0E3A737F6FDF}"/>
+    <hyperlink ref="B13" r:id="rId23" xr:uid="{461BC9C3-7BFE-49B1-B3E6-63799DDB9B1E}"/>
+    <hyperlink ref="B14" r:id="rId24" xr:uid="{7C49044D-2530-4AC5-BA40-2A1289EBED41}"/>
+    <hyperlink ref="B16" r:id="rId25" xr:uid="{966E7D5B-C44B-41C2-AC64-B23314A9C1EC}"/>
+    <hyperlink ref="B17" r:id="rId26" xr:uid="{4DFABC01-01B4-4A79-9FDA-BF9B1D15A865}"/>
+    <hyperlink ref="B19" r:id="rId27" xr:uid="{D3F0E689-D3AD-49F8-9C1D-899C922B43A5}"/>
+    <hyperlink ref="B20" r:id="rId28" xr:uid="{88CBA3AA-D8C0-4436-98CA-5C9174DA42AB}"/>
+    <hyperlink ref="B28" r:id="rId29" xr:uid="{037C52FF-4FF2-40AF-942F-EB90B5CBA22B}"/>
+    <hyperlink ref="B23" r:id="rId30" xr:uid="{0DF90DBE-5DAC-4A8C-AD62-AA624FD4B63E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/server/images/id_url_table.xlsx
+++ b/server/images/id_url_table.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>id</t>
   </si>
@@ -219,6 +219,15 @@
   </si>
   <si>
     <t>https://www.amazon.com/Coca-Cola-049000050103-2-Liter/dp/B000T9UV9M/</t>
+  </si>
+  <si>
+    <t>00014</t>
+  </si>
+  <si>
+    <t>00012</t>
+  </si>
+  <si>
+    <t>00013</t>
   </si>
 </sst>
 </file>
@@ -550,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1000"/>
+  <dimension ref="A1:B1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -656,210 +665,225 @@
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-    </row>
-    <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:1" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:1" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
     </row>
-    <row r="44" spans="1:1" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:1" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:1" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:1" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:1" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
     </row>
     <row r="49" spans="1:1" ht="12.45" x14ac:dyDescent="0.3">
@@ -3718,19 +3742,28 @@
     <row r="1000" spans="1:1" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A1000" s="3"/>
     </row>
+    <row r="1001" spans="1:1" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A1001" s="3"/>
+    </row>
+    <row r="1002" spans="1:1" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A1002" s="3"/>
+    </row>
+    <row r="1003" spans="1:1" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A1003" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B22" r:id="rId1" xr:uid="{EF7CF633-B9F5-496B-8474-6B1900EAF8D4}"/>
-    <hyperlink ref="B15" r:id="rId2" xr:uid="{4C6AED4B-8301-437D-81FE-05509215682A}"/>
-    <hyperlink ref="B18" r:id="rId3" xr:uid="{BE50CC64-44E8-4F9D-8BA5-C31067E5512A}"/>
-    <hyperlink ref="B21" r:id="rId4" xr:uid="{31B0BBAA-541B-459A-B507-0E59C2296727}"/>
-    <hyperlink ref="B26" r:id="rId5" xr:uid="{5935BE25-34D4-4EFA-8ECF-CC7FD662296C}"/>
-    <hyperlink ref="B29" r:id="rId6" xr:uid="{6DA0CB6C-0EDF-4A79-A466-410BFBD9FE23}"/>
-    <hyperlink ref="B30" r:id="rId7" xr:uid="{7035A070-AA60-4AB1-81B1-6798E5D2468E}"/>
-    <hyperlink ref="B24" r:id="rId8" xr:uid="{71D0AF82-2D3E-40FC-A074-4DCEB2F21E17}"/>
-    <hyperlink ref="B31" r:id="rId9" xr:uid="{A9ECE775-EE0E-4A3E-8067-DE61A5AFB433}"/>
-    <hyperlink ref="B25" r:id="rId10" xr:uid="{EA053556-7233-4508-84A8-4365BD8BD88A}"/>
-    <hyperlink ref="B32" r:id="rId11" xr:uid="{D67F427B-93B3-43B6-A0D8-4C656FE178BF}"/>
+    <hyperlink ref="B25" r:id="rId1" xr:uid="{EF7CF633-B9F5-496B-8474-6B1900EAF8D4}"/>
+    <hyperlink ref="B18" r:id="rId2" xr:uid="{4C6AED4B-8301-437D-81FE-05509215682A}"/>
+    <hyperlink ref="B21" r:id="rId3" xr:uid="{BE50CC64-44E8-4F9D-8BA5-C31067E5512A}"/>
+    <hyperlink ref="B24" r:id="rId4" xr:uid="{31B0BBAA-541B-459A-B507-0E59C2296727}"/>
+    <hyperlink ref="B29" r:id="rId5" xr:uid="{5935BE25-34D4-4EFA-8ECF-CC7FD662296C}"/>
+    <hyperlink ref="B32" r:id="rId6" xr:uid="{6DA0CB6C-0EDF-4A79-A466-410BFBD9FE23}"/>
+    <hyperlink ref="B33" r:id="rId7" xr:uid="{7035A070-AA60-4AB1-81B1-6798E5D2468E}"/>
+    <hyperlink ref="B27" r:id="rId8" xr:uid="{71D0AF82-2D3E-40FC-A074-4DCEB2F21E17}"/>
+    <hyperlink ref="B34" r:id="rId9" xr:uid="{A9ECE775-EE0E-4A3E-8067-DE61A5AFB433}"/>
+    <hyperlink ref="B28" r:id="rId10" xr:uid="{EA053556-7233-4508-84A8-4365BD8BD88A}"/>
+    <hyperlink ref="B35" r:id="rId11" xr:uid="{D67F427B-93B3-43B6-A0D8-4C656FE178BF}"/>
     <hyperlink ref="B2" r:id="rId12" xr:uid="{EDDFA0A8-26D9-4F19-A073-7326BF4D34D7}"/>
     <hyperlink ref="B3" r:id="rId13" xr:uid="{40851C81-7570-4416-A7F6-00D92A8713AA}"/>
     <hyperlink ref="B4" r:id="rId14" xr:uid="{6A2DF464-A4FE-40A5-97F0-C5B8E3CA43F2}"/>
@@ -3742,15 +3775,18 @@
     <hyperlink ref="B10" r:id="rId20" xr:uid="{C51757E6-E7F3-4F4D-8BCA-E56878166E92}"/>
     <hyperlink ref="B11" r:id="rId21" xr:uid="{39904B86-77D2-4A36-9B62-CEE132D4832A}"/>
     <hyperlink ref="B12" r:id="rId22" xr:uid="{A00FCA81-C43E-4660-A07C-0E3A737F6FDF}"/>
-    <hyperlink ref="B13" r:id="rId23" xr:uid="{461BC9C3-7BFE-49B1-B3E6-63799DDB9B1E}"/>
-    <hyperlink ref="B14" r:id="rId24" xr:uid="{7C49044D-2530-4AC5-BA40-2A1289EBED41}"/>
-    <hyperlink ref="B16" r:id="rId25" xr:uid="{966E7D5B-C44B-41C2-AC64-B23314A9C1EC}"/>
-    <hyperlink ref="B17" r:id="rId26" xr:uid="{4DFABC01-01B4-4A79-9FDA-BF9B1D15A865}"/>
-    <hyperlink ref="B19" r:id="rId27" xr:uid="{D3F0E689-D3AD-49F8-9C1D-899C922B43A5}"/>
-    <hyperlink ref="B20" r:id="rId28" xr:uid="{88CBA3AA-D8C0-4436-98CA-5C9174DA42AB}"/>
-    <hyperlink ref="B28" r:id="rId29" xr:uid="{037C52FF-4FF2-40AF-942F-EB90B5CBA22B}"/>
-    <hyperlink ref="B23" r:id="rId30" xr:uid="{0DF90DBE-5DAC-4A8C-AD62-AA624FD4B63E}"/>
+    <hyperlink ref="B16" r:id="rId23" xr:uid="{461BC9C3-7BFE-49B1-B3E6-63799DDB9B1E}"/>
+    <hyperlink ref="B17" r:id="rId24" xr:uid="{7C49044D-2530-4AC5-BA40-2A1289EBED41}"/>
+    <hyperlink ref="B19" r:id="rId25" xr:uid="{966E7D5B-C44B-41C2-AC64-B23314A9C1EC}"/>
+    <hyperlink ref="B20" r:id="rId26" xr:uid="{4DFABC01-01B4-4A79-9FDA-BF9B1D15A865}"/>
+    <hyperlink ref="B22" r:id="rId27" xr:uid="{D3F0E689-D3AD-49F8-9C1D-899C922B43A5}"/>
+    <hyperlink ref="B23" r:id="rId28" xr:uid="{88CBA3AA-D8C0-4436-98CA-5C9174DA42AB}"/>
+    <hyperlink ref="B31" r:id="rId29" xr:uid="{037C52FF-4FF2-40AF-942F-EB90B5CBA22B}"/>
+    <hyperlink ref="B26" r:id="rId30" xr:uid="{0DF90DBE-5DAC-4A8C-AD62-AA624FD4B63E}"/>
+    <hyperlink ref="B13" r:id="rId31" xr:uid="{DF4F2897-DBD8-4D43-BEAC-A38EF9FE82BD}"/>
+    <hyperlink ref="B14" r:id="rId32" xr:uid="{B2A7AC7E-6E2B-498A-98D7-00A054EC299A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId33"/>
 </worksheet>
 </file>
--- a/server/images/id_url_table.xlsx
+++ b/server/images/id_url_table.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>id</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>00013</t>
+  </si>
+  <si>
+    <t>00015</t>
+  </si>
+  <si>
+    <t>00016</t>
   </si>
 </sst>
 </file>
@@ -559,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1003"/>
+  <dimension ref="A1:B1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -689,169 +695,179 @@
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
@@ -874,10 +890,10 @@
     <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:2" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:2" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
     </row>
     <row r="47" spans="1:2" ht="12.45" x14ac:dyDescent="0.3">
@@ -3751,19 +3767,25 @@
     <row r="1003" spans="1:1" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A1003" s="3"/>
     </row>
+    <row r="1004" spans="1:1" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A1004" s="3"/>
+    </row>
+    <row r="1005" spans="1:1" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A1005" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1" xr:uid="{EF7CF633-B9F5-496B-8474-6B1900EAF8D4}"/>
-    <hyperlink ref="B18" r:id="rId2" xr:uid="{4C6AED4B-8301-437D-81FE-05509215682A}"/>
-    <hyperlink ref="B21" r:id="rId3" xr:uid="{BE50CC64-44E8-4F9D-8BA5-C31067E5512A}"/>
-    <hyperlink ref="B24" r:id="rId4" xr:uid="{31B0BBAA-541B-459A-B507-0E59C2296727}"/>
-    <hyperlink ref="B29" r:id="rId5" xr:uid="{5935BE25-34D4-4EFA-8ECF-CC7FD662296C}"/>
-    <hyperlink ref="B32" r:id="rId6" xr:uid="{6DA0CB6C-0EDF-4A79-A466-410BFBD9FE23}"/>
-    <hyperlink ref="B33" r:id="rId7" xr:uid="{7035A070-AA60-4AB1-81B1-6798E5D2468E}"/>
-    <hyperlink ref="B27" r:id="rId8" xr:uid="{71D0AF82-2D3E-40FC-A074-4DCEB2F21E17}"/>
-    <hyperlink ref="B34" r:id="rId9" xr:uid="{A9ECE775-EE0E-4A3E-8067-DE61A5AFB433}"/>
-    <hyperlink ref="B28" r:id="rId10" xr:uid="{EA053556-7233-4508-84A8-4365BD8BD88A}"/>
-    <hyperlink ref="B35" r:id="rId11" xr:uid="{D67F427B-93B3-43B6-A0D8-4C656FE178BF}"/>
+    <hyperlink ref="B27" r:id="rId1" xr:uid="{EF7CF633-B9F5-496B-8474-6B1900EAF8D4}"/>
+    <hyperlink ref="B20" r:id="rId2" xr:uid="{4C6AED4B-8301-437D-81FE-05509215682A}"/>
+    <hyperlink ref="B23" r:id="rId3" xr:uid="{BE50CC64-44E8-4F9D-8BA5-C31067E5512A}"/>
+    <hyperlink ref="B26" r:id="rId4" xr:uid="{31B0BBAA-541B-459A-B507-0E59C2296727}"/>
+    <hyperlink ref="B31" r:id="rId5" xr:uid="{5935BE25-34D4-4EFA-8ECF-CC7FD662296C}"/>
+    <hyperlink ref="B34" r:id="rId6" xr:uid="{6DA0CB6C-0EDF-4A79-A466-410BFBD9FE23}"/>
+    <hyperlink ref="B35" r:id="rId7" xr:uid="{7035A070-AA60-4AB1-81B1-6798E5D2468E}"/>
+    <hyperlink ref="B29" r:id="rId8" xr:uid="{71D0AF82-2D3E-40FC-A074-4DCEB2F21E17}"/>
+    <hyperlink ref="B36" r:id="rId9" xr:uid="{A9ECE775-EE0E-4A3E-8067-DE61A5AFB433}"/>
+    <hyperlink ref="B30" r:id="rId10" xr:uid="{EA053556-7233-4508-84A8-4365BD8BD88A}"/>
+    <hyperlink ref="B37" r:id="rId11" xr:uid="{D67F427B-93B3-43B6-A0D8-4C656FE178BF}"/>
     <hyperlink ref="B2" r:id="rId12" xr:uid="{EDDFA0A8-26D9-4F19-A073-7326BF4D34D7}"/>
     <hyperlink ref="B3" r:id="rId13" xr:uid="{40851C81-7570-4416-A7F6-00D92A8713AA}"/>
     <hyperlink ref="B4" r:id="rId14" xr:uid="{6A2DF464-A4FE-40A5-97F0-C5B8E3CA43F2}"/>
@@ -3775,14 +3797,14 @@
     <hyperlink ref="B10" r:id="rId20" xr:uid="{C51757E6-E7F3-4F4D-8BCA-E56878166E92}"/>
     <hyperlink ref="B11" r:id="rId21" xr:uid="{39904B86-77D2-4A36-9B62-CEE132D4832A}"/>
     <hyperlink ref="B12" r:id="rId22" xr:uid="{A00FCA81-C43E-4660-A07C-0E3A737F6FDF}"/>
-    <hyperlink ref="B16" r:id="rId23" xr:uid="{461BC9C3-7BFE-49B1-B3E6-63799DDB9B1E}"/>
-    <hyperlink ref="B17" r:id="rId24" xr:uid="{7C49044D-2530-4AC5-BA40-2A1289EBED41}"/>
-    <hyperlink ref="B19" r:id="rId25" xr:uid="{966E7D5B-C44B-41C2-AC64-B23314A9C1EC}"/>
-    <hyperlink ref="B20" r:id="rId26" xr:uid="{4DFABC01-01B4-4A79-9FDA-BF9B1D15A865}"/>
-    <hyperlink ref="B22" r:id="rId27" xr:uid="{D3F0E689-D3AD-49F8-9C1D-899C922B43A5}"/>
-    <hyperlink ref="B23" r:id="rId28" xr:uid="{88CBA3AA-D8C0-4436-98CA-5C9174DA42AB}"/>
-    <hyperlink ref="B31" r:id="rId29" xr:uid="{037C52FF-4FF2-40AF-942F-EB90B5CBA22B}"/>
-    <hyperlink ref="B26" r:id="rId30" xr:uid="{0DF90DBE-5DAC-4A8C-AD62-AA624FD4B63E}"/>
+    <hyperlink ref="B18" r:id="rId23" xr:uid="{461BC9C3-7BFE-49B1-B3E6-63799DDB9B1E}"/>
+    <hyperlink ref="B19" r:id="rId24" xr:uid="{7C49044D-2530-4AC5-BA40-2A1289EBED41}"/>
+    <hyperlink ref="B21" r:id="rId25" xr:uid="{966E7D5B-C44B-41C2-AC64-B23314A9C1EC}"/>
+    <hyperlink ref="B22" r:id="rId26" xr:uid="{4DFABC01-01B4-4A79-9FDA-BF9B1D15A865}"/>
+    <hyperlink ref="B24" r:id="rId27" xr:uid="{D3F0E689-D3AD-49F8-9C1D-899C922B43A5}"/>
+    <hyperlink ref="B25" r:id="rId28" xr:uid="{88CBA3AA-D8C0-4436-98CA-5C9174DA42AB}"/>
+    <hyperlink ref="B33" r:id="rId29" xr:uid="{037C52FF-4FF2-40AF-942F-EB90B5CBA22B}"/>
+    <hyperlink ref="B28" r:id="rId30" xr:uid="{0DF90DBE-5DAC-4A8C-AD62-AA624FD4B63E}"/>
     <hyperlink ref="B13" r:id="rId31" xr:uid="{DF4F2897-DBD8-4D43-BEAC-A38EF9FE82BD}"/>
     <hyperlink ref="B14" r:id="rId32" xr:uid="{B2A7AC7E-6E2B-498A-98D7-00A054EC299A}"/>
   </hyperlinks>

--- a/server/images/id_url_table.xlsx
+++ b/server/images/id_url_table.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>id</t>
   </si>
@@ -234,6 +234,15 @@
   </si>
   <si>
     <t>00016</t>
+  </si>
+  <si>
+    <t>00017</t>
+  </si>
+  <si>
+    <t>00018</t>
+  </si>
+  <si>
+    <t>00019</t>
   </si>
 </sst>
 </file>
@@ -565,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1005"/>
+  <dimension ref="A1:B1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -711,172 +720,187 @@
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
@@ -896,13 +920,13 @@
     <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:2" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:2" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:1" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
     </row>
     <row r="50" spans="1:1" ht="12.45" x14ac:dyDescent="0.3">
@@ -3773,19 +3797,28 @@
     <row r="1005" spans="1:1" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A1005" s="3"/>
     </row>
+    <row r="1006" spans="1:1" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A1006" s="3"/>
+    </row>
+    <row r="1007" spans="1:1" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A1007" s="3"/>
+    </row>
+    <row r="1008" spans="1:1" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A1008" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B27" r:id="rId1" xr:uid="{EF7CF633-B9F5-496B-8474-6B1900EAF8D4}"/>
-    <hyperlink ref="B20" r:id="rId2" xr:uid="{4C6AED4B-8301-437D-81FE-05509215682A}"/>
-    <hyperlink ref="B23" r:id="rId3" xr:uid="{BE50CC64-44E8-4F9D-8BA5-C31067E5512A}"/>
-    <hyperlink ref="B26" r:id="rId4" xr:uid="{31B0BBAA-541B-459A-B507-0E59C2296727}"/>
-    <hyperlink ref="B31" r:id="rId5" xr:uid="{5935BE25-34D4-4EFA-8ECF-CC7FD662296C}"/>
-    <hyperlink ref="B34" r:id="rId6" xr:uid="{6DA0CB6C-0EDF-4A79-A466-410BFBD9FE23}"/>
-    <hyperlink ref="B35" r:id="rId7" xr:uid="{7035A070-AA60-4AB1-81B1-6798E5D2468E}"/>
-    <hyperlink ref="B29" r:id="rId8" xr:uid="{71D0AF82-2D3E-40FC-A074-4DCEB2F21E17}"/>
-    <hyperlink ref="B36" r:id="rId9" xr:uid="{A9ECE775-EE0E-4A3E-8067-DE61A5AFB433}"/>
-    <hyperlink ref="B30" r:id="rId10" xr:uid="{EA053556-7233-4508-84A8-4365BD8BD88A}"/>
-    <hyperlink ref="B37" r:id="rId11" xr:uid="{D67F427B-93B3-43B6-A0D8-4C656FE178BF}"/>
+    <hyperlink ref="B30" r:id="rId1" xr:uid="{EF7CF633-B9F5-496B-8474-6B1900EAF8D4}"/>
+    <hyperlink ref="B23" r:id="rId2" xr:uid="{4C6AED4B-8301-437D-81FE-05509215682A}"/>
+    <hyperlink ref="B26" r:id="rId3" xr:uid="{BE50CC64-44E8-4F9D-8BA5-C31067E5512A}"/>
+    <hyperlink ref="B29" r:id="rId4" xr:uid="{31B0BBAA-541B-459A-B507-0E59C2296727}"/>
+    <hyperlink ref="B34" r:id="rId5" xr:uid="{5935BE25-34D4-4EFA-8ECF-CC7FD662296C}"/>
+    <hyperlink ref="B37" r:id="rId6" xr:uid="{6DA0CB6C-0EDF-4A79-A466-410BFBD9FE23}"/>
+    <hyperlink ref="B38" r:id="rId7" xr:uid="{7035A070-AA60-4AB1-81B1-6798E5D2468E}"/>
+    <hyperlink ref="B32" r:id="rId8" xr:uid="{71D0AF82-2D3E-40FC-A074-4DCEB2F21E17}"/>
+    <hyperlink ref="B39" r:id="rId9" xr:uid="{A9ECE775-EE0E-4A3E-8067-DE61A5AFB433}"/>
+    <hyperlink ref="B33" r:id="rId10" xr:uid="{EA053556-7233-4508-84A8-4365BD8BD88A}"/>
+    <hyperlink ref="B40" r:id="rId11" xr:uid="{D67F427B-93B3-43B6-A0D8-4C656FE178BF}"/>
     <hyperlink ref="B2" r:id="rId12" xr:uid="{EDDFA0A8-26D9-4F19-A073-7326BF4D34D7}"/>
     <hyperlink ref="B3" r:id="rId13" xr:uid="{40851C81-7570-4416-A7F6-00D92A8713AA}"/>
     <hyperlink ref="B4" r:id="rId14" xr:uid="{6A2DF464-A4FE-40A5-97F0-C5B8E3CA43F2}"/>
@@ -3797,14 +3830,14 @@
     <hyperlink ref="B10" r:id="rId20" xr:uid="{C51757E6-E7F3-4F4D-8BCA-E56878166E92}"/>
     <hyperlink ref="B11" r:id="rId21" xr:uid="{39904B86-77D2-4A36-9B62-CEE132D4832A}"/>
     <hyperlink ref="B12" r:id="rId22" xr:uid="{A00FCA81-C43E-4660-A07C-0E3A737F6FDF}"/>
-    <hyperlink ref="B18" r:id="rId23" xr:uid="{461BC9C3-7BFE-49B1-B3E6-63799DDB9B1E}"/>
-    <hyperlink ref="B19" r:id="rId24" xr:uid="{7C49044D-2530-4AC5-BA40-2A1289EBED41}"/>
-    <hyperlink ref="B21" r:id="rId25" xr:uid="{966E7D5B-C44B-41C2-AC64-B23314A9C1EC}"/>
-    <hyperlink ref="B22" r:id="rId26" xr:uid="{4DFABC01-01B4-4A79-9FDA-BF9B1D15A865}"/>
-    <hyperlink ref="B24" r:id="rId27" xr:uid="{D3F0E689-D3AD-49F8-9C1D-899C922B43A5}"/>
-    <hyperlink ref="B25" r:id="rId28" xr:uid="{88CBA3AA-D8C0-4436-98CA-5C9174DA42AB}"/>
-    <hyperlink ref="B33" r:id="rId29" xr:uid="{037C52FF-4FF2-40AF-942F-EB90B5CBA22B}"/>
-    <hyperlink ref="B28" r:id="rId30" xr:uid="{0DF90DBE-5DAC-4A8C-AD62-AA624FD4B63E}"/>
+    <hyperlink ref="B21" r:id="rId23" xr:uid="{461BC9C3-7BFE-49B1-B3E6-63799DDB9B1E}"/>
+    <hyperlink ref="B22" r:id="rId24" xr:uid="{7C49044D-2530-4AC5-BA40-2A1289EBED41}"/>
+    <hyperlink ref="B24" r:id="rId25" xr:uid="{966E7D5B-C44B-41C2-AC64-B23314A9C1EC}"/>
+    <hyperlink ref="B25" r:id="rId26" xr:uid="{4DFABC01-01B4-4A79-9FDA-BF9B1D15A865}"/>
+    <hyperlink ref="B27" r:id="rId27" xr:uid="{D3F0E689-D3AD-49F8-9C1D-899C922B43A5}"/>
+    <hyperlink ref="B28" r:id="rId28" xr:uid="{88CBA3AA-D8C0-4436-98CA-5C9174DA42AB}"/>
+    <hyperlink ref="B36" r:id="rId29" xr:uid="{037C52FF-4FF2-40AF-942F-EB90B5CBA22B}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{0DF90DBE-5DAC-4A8C-AD62-AA624FD4B63E}"/>
     <hyperlink ref="B13" r:id="rId31" xr:uid="{DF4F2897-DBD8-4D43-BEAC-A38EF9FE82BD}"/>
     <hyperlink ref="B14" r:id="rId32" xr:uid="{B2A7AC7E-6E2B-498A-98D7-00A054EC299A}"/>
   </hyperlinks>
